--- a/medicine/Enfance/Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse/Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse.xlsx
+++ b/medicine/Enfance/Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse/Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_la_ville_de_Hattingen_pour_la_litt%C3%A9rature_jeunesse</t>
+          <t>Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix de la Ville de Hattingen pour la littérature jeunesse (Hattinger Förderpreis für junge Literatur) est un prix littéraire allemand décerné depuis 1991 par la ville de Hattingen (Rhénanie-du-Nord-Westphalie).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_la_ville_de_Hattingen_pour_la_litt%C3%A9rature_jeunesse</t>
+          <t>Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2011, la ville de Hattigen décerne deux prix  : le prix du jury et le prix du public. Ils sont décernés tous les deux ans. Ils récompensent deux personnes autrices d'un ouvrage pour la jeunesse, âgées de 16 à 25 ans[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2011, la ville de Hattigen décerne deux prix  : le prix du jury et le prix du public. Ils sont décernés tous les deux ans. Ils récompensent deux personnes autrices d'un ouvrage pour la jeunesse, âgées de 16 à 25 ans. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_de_la_ville_de_Hattingen_pour_la_litt%C3%A9rature_jeunesse</t>
+          <t>Prix_de_la_ville_de_Hattingen_pour_la_littérature_jeunesse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Lauréats (liste non exhaustive)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1993 : Silke Andrea Schuemmer et Stefan Melneczuk
 1995 : Christina Dunker
@@ -556,7 +572,7 @@
 2011 : Paula Fürstenberg
 2015 : Andreas Schaible
 2017 : Viola Rosa Semper et Sarah Grandjean
-2019 : Linda König[2]</t>
+2019 : Linda König</t>
         </is>
       </c>
     </row>
